--- a/Document/02. Design/02. DetailDesign/Task 3/Detail_Design_View_CV_candidate.xlsx
+++ b/Document/02. Design/02. DetailDesign/Task 3/Detail_Design_View_CV_candidate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\Candidate-Management\Document\02. Design\02. DetailDesign\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AFCDF6-4FE4-4287-A4CA-56C715EDFA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756542E1-9D38-466C-8F21-2844B1847230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1D93384A-52E6-4AA9-A8EA-CF1F492B127E}"/>
   </bookViews>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Mã Số</t>
   </si>
@@ -198,17 +196,20 @@
     <t>Output từ API</t>
   </si>
   <si>
-    <t>candidate.pathCV</t>
-  </si>
-  <si>
-    <t>Lấy path CV ứng viên để hiển thị CV Ứng Viên</t>
+    <t xml:space="preserve">Hiển Thị Khởi Tạo </t>
+  </si>
+  <si>
+    <t>Action Download</t>
+  </si>
+  <si>
+    <t>Action Đóng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +248,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -325,7 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -339,6 +348,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -350,9 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -360,6 +372,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -436,14 +451,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>486513</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>29230</xdr:rowOff>
+      <xdr:rowOff>181630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -466,7 +481,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4476750"/>
+          <a:off x="0" y="4629150"/>
           <a:ext cx="5287113" cy="4696480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -480,14 +495,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438796</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>124165</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -510,7 +525,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11782425"/>
+          <a:off x="0" y="12649200"/>
           <a:ext cx="4629796" cy="2438740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -524,14 +539,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419743</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47929</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>105079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -554,7 +569,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9486900"/>
+          <a:off x="0" y="9791700"/>
           <a:ext cx="4610743" cy="2181529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1002,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ACA02C-7855-4970-86DA-F3D3984C06FC}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,20 +1033,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1046,16 +1061,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1064,15 +1079,15 @@
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -1081,15 +1096,15 @@
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -1098,34 +1113,34 @@
       <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -1134,32 +1149,32 @@
       <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
@@ -1168,63 +1183,70 @@
       <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I28" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" s="8" t="s">
         <v>48</v>
       </c>
@@ -1241,27 +1263,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I31" s="2">
-        <v>2</v>
-      </c>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1316,8 +1326,69 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
+    <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="26">
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:H1"/>
@@ -1334,6 +1405,16 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
